--- a/Shared/Sources/excel_data/facturen_februari_2026.xlsx
+++ b/Shared/Sources/excel_data/facturen_februari_2026.xlsx
@@ -13869,8 +13869,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD8216A3BCF59A4CAC1EDC9B65F03F94" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="aa988534acd66e0faca936449676834f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2" xmlns:ns3="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a53d5a5809db43b5de5f08038c98e6ab" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD8216A3BCF59A4CAC1EDC9B65F03F94" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0e72e358fff385e948993b5140718f2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2" xmlns:ns3="7c6541c9-858d-46cc-aee4-1fa681dc1bd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2e1edef662b1e8a4a57019bf45cf5f9" ns2:_="" ns3:_="">
     <xsd:import namespace="7e7f2dcd-0c2b-4478-ad05-247cf739c5b2"/>
     <xsd:import namespace="7c6541c9-858d-46cc-aee4-1fa681dc1bd6"/>
     <xsd:element name="properties">
@@ -13933,7 +13933,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5bd66242-e0b1-4d5e-a424-ed2be647a714" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5bd66242-e0b1-4d5e-a424-ed2be647a714" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -13977,7 +13977,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Gedeeld met" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -13996,7 +13996,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Gedeeld met details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -14013,8 +14013,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -14112,5 +14112,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30EF3D0B-551E-4A1F-BA0B-B10C51A29491}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F64C641-6774-4F91-B354-CECCE7A483DC}"/>
 </file>